--- a/table/env.xlsx
+++ b/table/env.xlsx
@@ -355,142 +355,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="20.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Cruise</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Habitat</t>
+          <t>Station</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Station</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Depth</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Depth</t>
+          <t>DRM</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>DRM</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>Salinity</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Salinity</t>
+          <t>SigmaTheta</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>SigmaTheta</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Oxygen</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Oxygen</t>
+          <t>Fluorescence</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Fluorescence</t>
+          <t>Transmission</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Transmission</t>
+          <t>Sand</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Sand</t>
+          <t>Silt</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Silt</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>D50</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>D50</t>
+          <t>TOC</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>TOC</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>delta13C</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>delta13C</t>
+          <t>Chla</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Chla</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>WC</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Porosity</t>
         </is>
@@ -499,947 +494,892 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Shelf</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>S3</t>
         </is>
       </c>
-      <c r="D2" s="2">
+      <c r="C2" s="2">
         <v>43556</v>
       </c>
+      <c r="D2">
+        <v>22.36028</v>
+      </c>
       <c r="E2">
-        <v>22.36028</v>
+        <v>120.44508</v>
       </c>
       <c r="F2">
-        <v>120.44508</v>
+        <v>45</v>
       </c>
       <c r="G2">
-        <v>45</v>
+        <v>12.39793846342943</v>
       </c>
       <c r="H2">
-        <v>12.39793846342943</v>
+        <v>25.7992</v>
       </c>
       <c r="I2">
-        <v>25.7992</v>
+        <v>34.51255</v>
       </c>
       <c r="J2">
-        <v>34.51255</v>
+        <v>22.7307</v>
       </c>
       <c r="K2">
-        <v>22.7307</v>
+        <v>1022.9045</v>
       </c>
       <c r="L2">
-        <v>1022.9045</v>
+        <v>7.0777</v>
       </c>
       <c r="M2">
-        <v>7.0777</v>
+        <v>0.1784</v>
       </c>
       <c r="N2">
-        <v>0.1784</v>
+        <v>71.6884</v>
       </c>
       <c r="O2">
-        <v>71.6884</v>
+        <v>2</v>
       </c>
       <c r="P2">
-        <v>2</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="Q2">
-        <v>74.40000000000001</v>
+        <v>23.6</v>
       </c>
       <c r="R2">
-        <v>23.6</v>
+        <v>8.867505</v>
       </c>
       <c r="S2">
-        <v>8.867505</v>
+        <v>0.4709272039224171</v>
       </c>
       <c r="T2">
-        <v>0.4709272039224171</v>
+        <v>0.08558183311640746</v>
       </c>
       <c r="U2">
-        <v>0.08558183311640746</v>
+        <v>6.419762830921273</v>
       </c>
       <c r="V2">
-        <v>6.419762830921273</v>
+        <v>-24.50777297814779</v>
       </c>
       <c r="W2">
-        <v>-24.50777297814779</v>
+        <v>1245.614535534961</v>
       </c>
       <c r="X2">
-        <v>1245.614535534961</v>
+        <v>0.4246944121071012</v>
       </c>
       <c r="Y2">
-        <v>0.4246944121071012</v>
-      </c>
-      <c r="Z2">
         <v>65.70878816474874</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Shelf</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>S4</t>
         </is>
       </c>
-      <c r="D3" s="2">
+      <c r="C3" s="2">
         <v>43555</v>
       </c>
+      <c r="D3">
+        <v>22.32756</v>
+      </c>
       <c r="E3">
-        <v>22.32756</v>
+        <v>120.42845</v>
       </c>
       <c r="F3">
-        <v>120.42845</v>
+        <v>85</v>
       </c>
       <c r="G3">
-        <v>85</v>
+        <v>15.83575404863804</v>
       </c>
       <c r="H3">
-        <v>15.83575404863804</v>
+        <v>25.00805</v>
       </c>
       <c r="I3">
-        <v>25.00805</v>
+        <v>34.5309</v>
       </c>
       <c r="J3">
-        <v>34.5309</v>
+        <v>22.9896</v>
       </c>
       <c r="K3">
-        <v>22.9896</v>
+        <v>1023.3336</v>
       </c>
       <c r="L3">
-        <v>1023.3336</v>
+        <v>6.9405</v>
       </c>
       <c r="M3">
-        <v>6.9405</v>
+        <v>0.294</v>
       </c>
       <c r="N3">
-        <v>0.294</v>
+        <v>84.48699999999999</v>
       </c>
       <c r="O3">
-        <v>84.487</v>
+        <v>0.1</v>
       </c>
       <c r="P3">
-        <v>0.1</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="Q3">
-        <v>65.09999999999999</v>
+        <v>34.8</v>
       </c>
       <c r="R3">
-        <v>34.8</v>
+        <v>5.459465</v>
       </c>
       <c r="S3">
-        <v>5.459465</v>
+        <v>0.5138122841178266</v>
       </c>
       <c r="T3">
-        <v>0.5138122841178267</v>
+        <v>0.09937691196351825</v>
       </c>
       <c r="U3">
-        <v>0.09937691196351825</v>
+        <v>6.03206170286506</v>
       </c>
       <c r="V3">
-        <v>6.03206170286506</v>
+        <v>-24.55539823756559</v>
       </c>
       <c r="W3">
-        <v>-24.55539823756559</v>
+        <v>747.6709458680324</v>
       </c>
       <c r="X3">
-        <v>747.6709458680324</v>
+        <v>0.5002722570106178</v>
       </c>
       <c r="Y3">
-        <v>0.5002722570106178</v>
-      </c>
-      <c r="Z3">
         <v>72.21123973702272</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Shelf</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
           <t>S5</t>
         </is>
       </c>
-      <c r="D4" s="2">
+      <c r="C4" s="2">
         <v>43555</v>
       </c>
+      <c r="D4">
+        <v>22.32601</v>
+      </c>
       <c r="E4">
-        <v>22.32601</v>
+        <v>120.40505</v>
       </c>
       <c r="F4">
-        <v>120.40505</v>
+        <v>93</v>
       </c>
       <c r="G4">
-        <v>93</v>
+        <v>16.11868759038367</v>
       </c>
       <c r="H4">
-        <v>16.11868759038367</v>
+        <v>24.6617</v>
       </c>
       <c r="I4">
-        <v>24.6617</v>
+        <v>34.56515</v>
       </c>
       <c r="J4">
-        <v>34.56515</v>
+        <v>23.12035</v>
       </c>
       <c r="K4">
-        <v>23.12035</v>
+        <v>1023.48595</v>
       </c>
       <c r="L4">
-        <v>1023.48595</v>
+        <v>6.8979</v>
       </c>
       <c r="M4">
-        <v>6.8979</v>
+        <v>0.2485</v>
       </c>
       <c r="N4">
-        <v>0.2485</v>
+        <v>85.71339999999999</v>
       </c>
       <c r="O4">
-        <v>85.71339999999999</v>
+        <v>0.1</v>
       </c>
       <c r="P4">
-        <v>0.1</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="Q4">
-        <v>65.09999999999999</v>
+        <v>34.8</v>
       </c>
       <c r="R4">
-        <v>34.8</v>
+        <v>4.98319</v>
       </c>
       <c r="S4">
-        <v>4.983190000000001</v>
+        <v>0.490255558014551</v>
       </c>
       <c r="T4">
-        <v>0.490255558014551</v>
+        <v>0.09791597185894954</v>
       </c>
       <c r="U4">
-        <v>0.09791597185894954</v>
+        <v>5.841384268825649</v>
       </c>
       <c r="V4">
-        <v>5.841384268825649</v>
+        <v>-24.20986178093859</v>
       </c>
       <c r="W4">
-        <v>-24.20986178093859</v>
+        <v>885.5852327187301</v>
       </c>
       <c r="X4">
-        <v>885.5852327187301</v>
+        <v>0.4889089870525513</v>
       </c>
       <c r="Y4">
-        <v>0.4889089870525513</v>
-      </c>
-      <c r="Z4">
         <v>71.28985974804478</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Shelf</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
           <t>S6</t>
         </is>
       </c>
-      <c r="D5" s="2">
+      <c r="C5" s="2">
         <v>43554</v>
       </c>
+      <c r="D5">
+        <v>22.3079</v>
+      </c>
       <c r="E5">
-        <v>22.3079</v>
+        <v>120.50471</v>
       </c>
       <c r="F5">
-        <v>120.50471</v>
+        <v>36</v>
       </c>
       <c r="G5">
-        <v>36</v>
+        <v>19.83342396587866</v>
       </c>
       <c r="H5">
-        <v>19.83342396587866</v>
+        <v>24.8869</v>
       </c>
       <c r="I5">
-        <v>24.8869</v>
+        <v>34.51795</v>
       </c>
       <c r="J5">
-        <v>34.51795</v>
+        <v>23.01325</v>
       </c>
       <c r="K5">
-        <v>23.01325</v>
+        <v>1023.14495</v>
       </c>
       <c r="L5">
-        <v>1023.14495</v>
+        <v>6.9276</v>
       </c>
       <c r="M5">
-        <v>6.9276</v>
+        <v>0.3242</v>
       </c>
       <c r="N5">
-        <v>0.3242</v>
+        <v>82.5003</v>
       </c>
       <c r="O5">
-        <v>82.5003</v>
+        <v>3.8</v>
       </c>
       <c r="P5">
-        <v>3.8</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="Q5">
-        <v>73.90000000000001</v>
+        <v>22.4</v>
       </c>
       <c r="R5">
-        <v>22.4</v>
+        <v>9.299715000000001</v>
       </c>
       <c r="S5">
-        <v>9.299715000000001</v>
+        <v>0.4423758404053299</v>
       </c>
       <c r="T5">
-        <v>0.4423758404053299</v>
+        <v>0.08576139973146242</v>
       </c>
       <c r="U5">
-        <v>0.08576139973146242</v>
+        <v>6.017918886067496</v>
       </c>
       <c r="V5">
-        <v>6.017918886067496</v>
+        <v>-24.51587940528274</v>
       </c>
       <c r="W5">
-        <v>-24.51587940528274</v>
+        <v>673.1649189090629</v>
       </c>
       <c r="X5">
-        <v>673.1649189090629</v>
+        <v>0.4551003028009085</v>
       </c>
       <c r="Y5">
-        <v>0.4551003028009085</v>
-      </c>
-      <c r="Z5">
         <v>68.43404251496588</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Shelf</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
           <t>S7</t>
         </is>
       </c>
-      <c r="D6" s="2">
+      <c r="C6" s="2">
         <v>43554</v>
       </c>
+      <c r="D6">
+        <v>22.28829</v>
+      </c>
       <c r="E6">
-        <v>22.28829</v>
+        <v>120.56967</v>
       </c>
       <c r="F6">
-        <v>120.56967</v>
+        <v>37</v>
       </c>
       <c r="G6">
-        <v>37</v>
+        <v>25.14582217078395</v>
       </c>
       <c r="H6">
-        <v>25.14582217078395</v>
+        <v>24.88215</v>
       </c>
       <c r="I6">
-        <v>24.88215</v>
+        <v>34.51275</v>
       </c>
       <c r="J6">
-        <v>34.51275</v>
+        <v>23.01095</v>
       </c>
       <c r="K6">
-        <v>23.01095</v>
+        <v>1023.15545</v>
       </c>
       <c r="L6">
-        <v>1023.15545</v>
+        <v>6.8797</v>
       </c>
       <c r="M6">
-        <v>6.8797</v>
+        <v>0.2957</v>
       </c>
       <c r="N6">
-        <v>0.2957</v>
+        <v>79.6011</v>
       </c>
       <c r="O6">
-        <v>79.6011</v>
+        <v>3</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="Q6">
-        <v>73.09999999999999</v>
+        <v>24</v>
       </c>
       <c r="R6">
-        <v>24</v>
+        <v>8.10839</v>
       </c>
       <c r="S6">
-        <v>8.10839</v>
+        <v>0.4167012594811083</v>
       </c>
       <c r="T6">
-        <v>0.4167012594811083</v>
+        <v>0.09056878442565545</v>
       </c>
       <c r="U6">
-        <v>0.09056878442565546</v>
+        <v>5.367759680971427</v>
       </c>
       <c r="V6">
-        <v>5.367759680971427</v>
+        <v>-24.64558223944184</v>
       </c>
       <c r="W6">
-        <v>-24.64558223944184</v>
+        <v>949.9928379897691</v>
       </c>
       <c r="X6">
-        <v>949.9928379897691</v>
+        <v>0.4387157764607497</v>
       </c>
       <c r="Y6">
-        <v>0.4387157764607497</v>
-      </c>
-      <c r="Z6">
-        <v>66.98483841676107</v>
+        <v>66.98483841676106</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Shelf</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
           <t>S1</t>
         </is>
       </c>
-      <c r="D7" s="2">
+      <c r="C7" s="2">
         <v>43753</v>
       </c>
+      <c r="D7">
+        <v>22.55327</v>
+      </c>
       <c r="E7">
-        <v>22.55327</v>
+        <v>120.21262</v>
       </c>
       <c r="F7">
-        <v>120.21262</v>
+        <v>88</v>
       </c>
       <c r="G7">
-        <v>88</v>
+        <v>23.59690405713382</v>
       </c>
       <c r="H7">
-        <v>23.59690405713382</v>
+        <v>24.15915</v>
       </c>
       <c r="I7">
-        <v>24.15915</v>
+        <v>34.65245</v>
       </c>
       <c r="J7">
-        <v>34.65245</v>
+        <v>23.3365</v>
       </c>
       <c r="K7">
-        <v>23.3365</v>
+        <v>1023.6856</v>
       </c>
       <c r="L7">
-        <v>1023.6856</v>
+        <v>6.22</v>
       </c>
       <c r="M7">
-        <v>6.22</v>
+        <v>0.2575</v>
       </c>
       <c r="N7">
-        <v>0.2575</v>
+        <v>82.2967</v>
       </c>
       <c r="O7">
-        <v>82.2967</v>
+        <v>5.099999999999998</v>
       </c>
       <c r="P7">
-        <v>5.099999999999998</v>
+        <v>78.7</v>
       </c>
       <c r="Q7">
-        <v>78.7</v>
+        <v>16.2</v>
       </c>
       <c r="R7">
-        <v>16.2</v>
+        <v>11.1849</v>
       </c>
       <c r="S7">
-        <v>11.1849</v>
+        <v>0.4184642293780986</v>
       </c>
       <c r="T7">
-        <v>0.4184642293780986</v>
+        <v>0.08393544537860508</v>
       </c>
       <c r="U7">
-        <v>0.08393544537860508</v>
+        <v>5.816473188479973</v>
       </c>
       <c r="V7">
-        <v>5.816473188479973</v>
+        <v>-23.63748582984751</v>
       </c>
       <c r="W7">
-        <v>-23.63748582984751</v>
+        <v>338.3577103082709</v>
       </c>
       <c r="X7">
-        <v>338.3577103082709</v>
+        <v>0.453802745725596</v>
       </c>
       <c r="Y7">
-        <v>0.453802745725596</v>
-      </c>
-      <c r="Z7">
         <v>68.32087671903038</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Shelf</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
           <t>S2</t>
         </is>
       </c>
-      <c r="D8" s="2">
+      <c r="C8" s="2">
         <v>43753</v>
       </c>
+      <c r="D8">
+        <v>22.45473</v>
+      </c>
       <c r="E8">
-        <v>22.45473</v>
+        <v>120.30104</v>
       </c>
       <c r="F8">
-        <v>120.30104</v>
+        <v>35</v>
       </c>
       <c r="G8">
-        <v>35</v>
+        <v>12.77141935667248</v>
       </c>
       <c r="H8">
-        <v>12.77141935667248</v>
+        <v>27.9683</v>
       </c>
       <c r="I8">
-        <v>27.9683</v>
+        <v>34.28205</v>
       </c>
       <c r="J8">
-        <v>34.28205</v>
+        <v>21.86755</v>
       </c>
       <c r="K8">
-        <v>21.86755</v>
+        <v>1021.99815</v>
       </c>
       <c r="L8">
-        <v>1021.99815</v>
+        <v>6.5796</v>
       </c>
       <c r="M8">
-        <v>6.5796</v>
+        <v>0.2717</v>
       </c>
       <c r="N8">
-        <v>0.2717</v>
+        <v>61.4422</v>
       </c>
       <c r="O8">
-        <v>61.4422</v>
+        <v>0.5999999999999908</v>
       </c>
       <c r="P8">
-        <v>0.5999999999999908</v>
+        <v>78.60000000000001</v>
       </c>
       <c r="Q8">
-        <v>78.60000000000001</v>
+        <v>20.8</v>
       </c>
       <c r="R8">
-        <v>20.8</v>
+        <v>8.26722</v>
       </c>
       <c r="S8">
-        <v>8.26722</v>
+        <v>0.3871672502396141</v>
       </c>
       <c r="T8">
-        <v>0.3871672502396141</v>
+        <v>0.07870724332657905</v>
       </c>
       <c r="U8">
-        <v>0.07870724332657905</v>
+        <v>5.738927018512596</v>
       </c>
       <c r="V8">
-        <v>5.738927018512596</v>
+        <v>-23.7161540667085</v>
       </c>
       <c r="W8">
-        <v>-23.7161540667085</v>
+        <v>164.809785171064</v>
       </c>
       <c r="X8">
-        <v>164.809785171064</v>
+        <v>0.4568283140751525</v>
       </c>
       <c r="Y8">
-        <v>0.4568283140751525</v>
-      </c>
-      <c r="Z8">
         <v>68.58432932106689</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Shelf</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
           <t>S3</t>
         </is>
       </c>
-      <c r="D9" s="2">
+      <c r="C9" s="2">
         <v>43756</v>
       </c>
+      <c r="D9">
+        <v>22.36401</v>
+      </c>
       <c r="E9">
-        <v>22.36401</v>
+        <v>120.46197</v>
       </c>
       <c r="F9">
-        <v>120.46197</v>
+        <v>32</v>
       </c>
       <c r="G9">
-        <v>32</v>
+        <v>12.4250899090019</v>
       </c>
       <c r="H9">
-        <v>12.4250899090019</v>
+        <v>28.1282</v>
       </c>
       <c r="I9">
-        <v>28.1282</v>
+        <v>34.12565</v>
       </c>
       <c r="J9">
-        <v>34.12565</v>
+        <v>21.69765</v>
       </c>
       <c r="K9">
-        <v>21.69765</v>
+        <v>1021.81975</v>
       </c>
       <c r="L9">
-        <v>1021.81975</v>
+        <v>6.642</v>
       </c>
       <c r="M9">
-        <v>6.642</v>
+        <v>0.3369</v>
       </c>
       <c r="N9">
-        <v>0.3369</v>
+        <v>68.05289999999999</v>
       </c>
       <c r="O9">
-        <v>68.05289999999999</v>
+        <v>0.09999999999999076</v>
       </c>
       <c r="P9">
-        <v>0.09999999999999076</v>
+        <v>72.10000000000001</v>
       </c>
       <c r="Q9">
-        <v>72.10000000000001</v>
+        <v>27.8</v>
       </c>
       <c r="R9">
-        <v>27.8</v>
+        <v>6.61953</v>
       </c>
       <c r="S9">
-        <v>6.61953</v>
+        <v>0.5045162896941919</v>
       </c>
       <c r="T9">
-        <v>0.5045162896941919</v>
+        <v>0.09897813581085174</v>
       </c>
       <c r="U9">
-        <v>0.09897813581085174</v>
+        <v>5.946791512636513</v>
       </c>
       <c r="V9">
-        <v>5.946791512636513</v>
+        <v>-24.25517226822852</v>
       </c>
       <c r="W9">
-        <v>-24.25517226822852</v>
+        <v>395.7184264459071</v>
       </c>
       <c r="X9">
-        <v>395.7184264459071</v>
+        <v>0.6057104766137097</v>
       </c>
       <c r="Y9">
-        <v>0.6057104766137097</v>
-      </c>
-      <c r="Z9">
         <v>79.95031103497625</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Shelf</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
           <t>S5</t>
         </is>
       </c>
-      <c r="D10" s="2">
+      <c r="C10" s="2">
         <v>43757</v>
       </c>
+      <c r="D10">
+        <v>22.32569</v>
+      </c>
       <c r="E10">
-        <v>22.32569</v>
+        <v>120.40541</v>
       </c>
       <c r="F10">
-        <v>120.40541</v>
+        <v>93</v>
       </c>
       <c r="G10">
-        <v>93</v>
+        <v>16.14943755717992</v>
       </c>
       <c r="H10">
-        <v>16.14943755717992</v>
+        <v>23.6912</v>
       </c>
       <c r="I10">
-        <v>23.6912</v>
+        <v>34.59525</v>
       </c>
       <c r="J10">
-        <v>34.59525</v>
+        <v>23.4315</v>
       </c>
       <c r="K10">
-        <v>23.4315</v>
+        <v>1023.8237</v>
       </c>
       <c r="L10">
-        <v>1023.8237</v>
+        <v>6.0836</v>
       </c>
       <c r="M10">
-        <v>6.0836</v>
+        <v>0.1406</v>
       </c>
       <c r="N10">
-        <v>0.1406</v>
+        <v>76.9688</v>
       </c>
       <c r="O10">
-        <v>76.9688</v>
+        <v>1.400000000000009</v>
       </c>
       <c r="P10">
-        <v>1.400000000000009</v>
+        <v>81.39999999999999</v>
       </c>
       <c r="Q10">
-        <v>81.39999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="R10">
-        <v>17.2</v>
+        <v>11.1366</v>
       </c>
       <c r="S10">
-        <v>11.1366</v>
+        <v>0.5024439221338267</v>
       </c>
       <c r="T10">
-        <v>0.5024439221338267</v>
+        <v>0.09123270432430236</v>
       </c>
       <c r="U10">
-        <v>0.09123270432430236</v>
+        <v>6.425158392094832</v>
       </c>
       <c r="V10">
-        <v>6.425158392094832</v>
+        <v>-23.5676282396593</v>
       </c>
       <c r="W10">
-        <v>-23.5676282396593</v>
+        <v>401.4526346861702</v>
       </c>
       <c r="X10">
-        <v>401.4526346861702</v>
+        <v>0.5209601932464394</v>
       </c>
       <c r="Y10">
-        <v>0.5209601932464394</v>
-      </c>
-      <c r="Z10">
         <v>73.84185283315607</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Shelf</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
           <t>S6</t>
         </is>
       </c>
-      <c r="D11" s="2">
+      <c r="C11" s="2">
         <v>43758</v>
       </c>
+      <c r="D11">
+        <v>22.30606</v>
+      </c>
       <c r="E11">
-        <v>22.30606</v>
+        <v>120.50835</v>
       </c>
       <c r="F11">
-        <v>120.50835</v>
+        <v>36</v>
       </c>
       <c r="G11">
-        <v>36</v>
+        <v>20.17719422990098</v>
       </c>
       <c r="H11">
-        <v>20.17719422990098</v>
+        <v>27.48995</v>
       </c>
       <c r="I11">
-        <v>27.48995</v>
+        <v>34.21285</v>
       </c>
       <c r="J11">
-        <v>34.21285</v>
+        <v>21.9704</v>
       </c>
       <c r="K11">
-        <v>21.9704</v>
+        <v>1022.10115</v>
       </c>
       <c r="L11">
-        <v>1022.10115</v>
+        <v>6.4379</v>
       </c>
       <c r="M11">
-        <v>6.4379</v>
+        <v>0.2321</v>
       </c>
       <c r="N11">
-        <v>0.2321</v>
+        <v>62.6077</v>
       </c>
       <c r="O11">
-        <v>62.6077</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="P11">
-        <v>0.3000000000000007</v>
+        <v>68.5</v>
       </c>
       <c r="Q11">
-        <v>68.5</v>
+        <v>31.2</v>
       </c>
       <c r="R11">
-        <v>31.2</v>
+        <v>5.82727</v>
       </c>
       <c r="S11">
-        <v>5.82727</v>
+        <v>0.3952246800630641</v>
       </c>
       <c r="T11">
-        <v>0.3952246800630641</v>
+        <v>0.09304954691180273</v>
       </c>
       <c r="U11">
-        <v>0.09304954691180273</v>
+        <v>4.95537566142719</v>
       </c>
       <c r="V11">
-        <v>4.95537566142719</v>
+        <v>-23.76788701065862</v>
       </c>
       <c r="W11">
-        <v>-23.76788701065862</v>
+        <v>175.0620482517177</v>
       </c>
       <c r="X11">
-        <v>175.0620482517177</v>
+        <v>0.4988898861542822</v>
       </c>
       <c r="Y11">
-        <v>0.4988898861542822</v>
-      </c>
-      <c r="Z11">
         <v>72.10014545105227</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Shelf</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
           <t>S7</t>
         </is>
       </c>
-      <c r="D12" s="2">
+      <c r="C12" s="2">
         <v>43759</v>
       </c>
+      <c r="D12">
+        <v>22.29017</v>
+      </c>
       <c r="E12">
-        <v>22.29017</v>
+        <v>120.56946</v>
       </c>
       <c r="F12">
-        <v>120.56946</v>
+        <v>37</v>
       </c>
       <c r="G12">
-        <v>37</v>
+        <v>24.96603633227092</v>
       </c>
       <c r="H12">
-        <v>24.96603633227092</v>
+        <v>27.80075</v>
       </c>
       <c r="I12">
-        <v>27.80075</v>
+        <v>34.1035</v>
       </c>
       <c r="J12">
-        <v>34.1035</v>
+        <v>21.78775</v>
       </c>
       <c r="K12">
-        <v>21.78775</v>
+        <v>1021.91845</v>
       </c>
       <c r="L12">
-        <v>1021.91845</v>
+        <v>6.5288</v>
       </c>
       <c r="M12">
-        <v>6.5288</v>
+        <v>0.2811</v>
       </c>
       <c r="N12">
-        <v>0.2811</v>
+        <v>65.94710000000001</v>
       </c>
       <c r="O12">
-        <v>65.94710000000001</v>
+        <v>2.099999999999991</v>
       </c>
       <c r="P12">
-        <v>2.099999999999991</v>
+        <v>77.60000000000001</v>
       </c>
       <c r="Q12">
-        <v>77.60000000000001</v>
+        <v>20.3</v>
       </c>
       <c r="R12">
-        <v>20.3</v>
+        <v>9.183529999999999</v>
       </c>
       <c r="S12">
-        <v>9.183529999999999</v>
+        <v>0.4738127084928552</v>
       </c>
       <c r="T12">
-        <v>0.4738127084928552</v>
+        <v>0.1001318829613408</v>
       </c>
       <c r="U12">
-        <v>0.1001318829613409</v>
+        <v>5.520534288315377</v>
       </c>
       <c r="V12">
-        <v>5.520534288315377</v>
+        <v>-24.35912922645616</v>
       </c>
       <c r="W12">
-        <v>-24.35912922645616</v>
+        <v>478.0779768055522</v>
       </c>
       <c r="X12">
-        <v>478.0779768055522</v>
+        <v>0.5483687134919504</v>
       </c>
       <c r="Y12">
-        <v>0.5483687134919504</v>
-      </c>
-      <c r="Z12">
-        <v>75.91375267069626</v>
+        <v>75.91375267069625</v>
       </c>
     </row>
   </sheetData>
